--- a/JACOB KIMOTE.xlsx
+++ b/JACOB KIMOTE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965" firstSheet="7" activeTab="9"/>
@@ -18,12 +18,12 @@
     <sheet name="NOVEMBER 21" sheetId="9" r:id="rId9"/>
     <sheet name="DECEMBER 21" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="91">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -296,15 +296,12 @@
   </si>
   <si>
     <t>DECEMBER</t>
-  </si>
-  <si>
-    <t>J</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -628,7 +625,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,7 +660,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1593,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,10 +1755,12 @@
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="32">
+        <v>3500</v>
+      </c>
       <c r="I7" s="38">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="J7" s="38"/>
     </row>
@@ -1772,7 +1771,9 @@
       <c r="B8" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="33">
+        <v>1700</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6">
         <f>'NOVEMBER 21'!I8</f>
@@ -1783,12 +1784,14 @@
       </c>
       <c r="G8" s="44">
         <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-      <c r="H8" s="32"/>
+        <v>5200</v>
+      </c>
+      <c r="H8" s="32">
+        <v>5200</v>
+      </c>
       <c r="I8" s="46">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="47"/>
@@ -1840,12 +1843,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="38" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="H10" s="32"/>
+      <c r="I10" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J10" s="38"/>
     </row>
@@ -1898,14 +1899,15 @@
         <f t="shared" si="0"/>
         <v>10500</v>
       </c>
-      <c r="H12" s="32"/>
+      <c r="H12" s="32">
+        <v>10500</v>
+      </c>
       <c r="I12" s="38">
         <f t="shared" si="1"/>
-        <v>10500</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="J12" s="38">
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1953,10 +1955,12 @@
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="H14" s="29"/>
+      <c r="H14" s="29">
+        <v>2300</v>
+      </c>
       <c r="I14" s="38">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J14" s="38"/>
     </row>
@@ -1990,7 +1994,7 @@
       </c>
       <c r="C16" s="28">
         <f t="shared" ref="C16:H16" si="2">SUM(C5:C15)</f>
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6">
@@ -2003,19 +2007,19 @@
       </c>
       <c r="G16" s="27">
         <f t="shared" si="2"/>
-        <v>41225</v>
+        <v>42925</v>
       </c>
       <c r="H16" s="27">
         <f t="shared" si="2"/>
-        <v>3100</v>
-      </c>
-      <c r="I16" s="38" t="e">
+        <v>24600</v>
+      </c>
+      <c r="I16" s="38">
         <f>SUM(I5:I15)</f>
-        <v>#VALUE!</v>
+        <v>18325</v>
       </c>
       <c r="J16" s="9">
         <f>SUM(J5:J15)</f>
-        <v>0</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2113,7 +2117,7 @@
       </c>
       <c r="G22" s="21">
         <f>H16</f>
-        <v>3100</v>
+        <v>24600</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -2148,7 +2152,7 @@
       </c>
       <c r="B24" s="21">
         <f>J16</f>
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -2158,7 +2162,7 @@
       </c>
       <c r="G24" s="21">
         <f>J16</f>
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -2194,7 +2198,7 @@
       </c>
       <c r="B26" s="9">
         <f>C16</f>
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -2281,7 +2285,7 @@
       </c>
       <c r="B32" s="31">
         <f>B22+B24+B23+B26</f>
-        <v>26847</v>
+        <v>28822</v>
       </c>
       <c r="C32" s="31">
         <f>SUM(C25:C31)</f>
@@ -2290,14 +2294,14 @@
       <c r="D32" s="31"/>
       <c r="E32" s="31">
         <f>B32-C32</f>
-        <v>24147</v>
+        <v>26122</v>
       </c>
       <c r="F32" s="30" t="s">
         <v>17</v>
       </c>
       <c r="G32" s="31">
         <f>G22+G24+G23</f>
-        <v>-20778</v>
+        <v>997</v>
       </c>
       <c r="H32" s="31">
         <f>SUM(H25:H31)</f>
@@ -2305,7 +2309,7 @@
       </c>
       <c r="I32" s="31">
         <f>G32-H32</f>
-        <v>-23478</v>
+        <v>-1703</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
